--- a/biology/Botanique/Château_La_Tour_Carnet/Château_La_Tour_Carnet.xlsx
+++ b/biology/Botanique/Château_La_Tour_Carnet/Château_La_Tour_Carnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Tour_Carnet</t>
+          <t>Château_La_Tour_Carnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château La Tour Carnet, est un domaine viticole situé à Saint-Laurent-Médoc en Gironde. Situé en AOC haut-médoc, il est classé quatrième grand cru dans la classification officielle des vins de Bordeaux de 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Tour_Carnet</t>
+          <t>Château_La_Tour_Carnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement appelé « château Saint Laurent ». En 1999, le domaine est repris par Bernard Magrez qui rénove le vignoble et les chais moyennant un plan d'investissement ambitieux. Le Château La Tour Carnet datant du XIe siècle est le plus ancien château du Médoc[réf. nécessaire].
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Tour_Carnet</t>
+          <t>Château_La_Tour_Carnet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La terroir est composée d'un socle d'argile extrêmement calcaire recouvert d'une très épaisse couche de graves günziennes, constituant la butte de La Tour Carnet (19 mètres d'altitude).
-L'encépagement du Château La Tour Carnet est constitué de 52 % de merlot, 40 % de cabernet sauvignon, 5 % de cabernet franc et de 3 % de petit verdot[1], ce qui fait de ce château une exception du Médoc (habituellement, le cépage majoritaire est le cabernet sauvignon). Le vin repose 18 mois dans des barriques, dont 70 % neuves. L'œnologue Michel Rolland est consultant du domaine.
+L'encépagement du Château La Tour Carnet est constitué de 52 % de merlot, 40 % de cabernet sauvignon, 5 % de cabernet franc et de 3 % de petit verdot, ce qui fait de ce château une exception du Médoc (habituellement, le cépage majoritaire est le cabernet sauvignon). Le vin repose 18 mois dans des barriques, dont 70 % neuves. L'œnologue Michel Rolland est consultant du domaine.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Tour_Carnet</t>
+          <t>Château_La_Tour_Carnet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le second vin est dénommé « Les Douves du Château La Tour Carnet ».
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Tour_Carnet</t>
+          <t>Château_La_Tour_Carnet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Vignes expérimentales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour étudier les effets du réchauffement climatique sur les vignes et les cépages, 2,5 hectares de vignes du château ont été réchauffées artificiellement par des câbles pour simuler un réchauffement de 2 à 4 °C. Le projet « La Tour Carnet 2050 », mené en liaison avec l'INRAE, permet de tester l'adaptation de cépages différents[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour étudier les effets du réchauffement climatique sur les vignes et les cépages, 2,5 hectares de vignes du château ont été réchauffées artificiellement par des câbles pour simuler un réchauffement de 2 à 4 °C. Le projet « La Tour Carnet 2050 », mené en liaison avec l'INRAE, permet de tester l'adaptation de cépages différents.
 </t>
         </is>
       </c>
